--- a/medicine/Psychotrope/Corse_(AOC)/Corse_(AOC).xlsx
+++ b/medicine/Psychotrope/Corse_(AOC)/Corse_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le vin de Corse, ou corse[3], est un vin d'appellation d'origine contrôlée produit sur l'ensemble du vignoble de Corse.
+Le vin de Corse, ou corse, est un vin d'appellation d'origine contrôlée produit sur l'ensemble du vignoble de Corse.
 Le nom de l'appellation peut être suivi des dénominations géographiques Calvi, coteaux du Cap-Corse, Figari, Porto-Vecchio et Sartène.
 </t>
         </is>
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
-L'appellation est reconnue par le décret du 2 avril 1976.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation est reconnue par le décret du 2 avril 1976.
 </t>
         </is>
       </c>
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,13 +590,12 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette plaine orientale, la seule de l'île, s'étend du sud de Bastia à Solenzara sur près de 80 kilomètres. 
-Orographie
-Géologie
-Alluvions récentes, marnes sableuses, tuf, dépôts du quaternaire.
-Climatologie</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plaine orientale, la seule de l'île, s'étend du sud de Bastia à Solenzara sur près de 80 kilomètres. 
+</t>
         </is>
       </c>
     </row>
@@ -605,26 +620,265 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alluvions récentes, marnes sableuses, tuf, dépôts du quaternaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur les communes de :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le vignoble s'étend sur les communes de :
 Département de Haute-Corse : Aghione, Aiti, Aléria, Algajola, Altiani, Antisanti, Aregno, Avapessa, Barrettali, Belgodère, Biguglia, Borgo, Brando, Cagnano, Calenzana, Calvi, Campi, Canale-di-Verde, Canari, Canavaggia, Casevecchie, Castellare-di-Casinca, Castello-di-Rostino, Castifao, Castirla, Cateri, Centuri, Cervione, Chiatra, Corbara, Costa, Erbajolo, Ersa, Feliceto, Focicchia, Furiani, Galéria, Gavignano, Ghisonaccia, Ghisoni, Giuncaggio, L'Ile-Rousse, Lama, Lavatoggio, Linguizzetta, Lucciana, Lugo-di-Nazza, Lumio, Luri, Manso, Meria, Moltifao, Moncale, Monte, Montegrosso, Monticello, Morosaglia, Morsiglia, Muro, Nessa, Nonza, Novella, Occhiatana, Ogliastro, Olcani, Olmeta-di-Capocorso, Olmo, Omessa, Palasca, Pancheraccia, Penta-di-Casinca, Piedicorte-di-Gaggio, Piedigriggio, Pietracorbara, Pietra-di-Verde, Pietralba, Pietraserena, Pietroso, Pigna, Pino, Poggio-di-Nazza, Poggio-Mezzana, Prato-di-Giovellina, Prunelli-di-Casacconi, Prunelli-di-Fiumorbo, Rogliano, Saliceto, San-Giuliano, San-Martino-di-Lota, San-Nicolao, Sant'Andréa-di-Cotone, Sant'Antonino, Santa-Lucia-di-Moriani, Santa-Maria-di-Lota, Santa-Maria-Poggio, Santa-Reparata-di-Balagna, Serra-di-Fiumorbo, Sisco, Solaro, Sorbo-Ocagnano, Soveria, Speloncato, Taglio-Isolaccio, Talasani, Tallone, Tomino, Tox, Tralonca, Urtaca, Valle-di-Campoloro, Ventiseri, Venzolasca, Vescovato, Vezzani, Vignale, Ville-di-Paraso, Ville-di-Pietrabugno, Zalana et Zilia.
-Département de Corse-du-Sud : Afa, Ajaccio, Alata, Albitreccia, Ambiegna, Appietto, Arbellara, Arbori, Arro, Bastelicaccia, Belvédère-Campomoro, Bilia, Bonifacio, Calcatoggio, Cannelle, Carbuccia, Cargèse, Casaglione, Casalabriva, Cauro, Coggia, Cognocoli-Monticchi, Conca, Coti-Chiavari, Cuttoli-Corticchiato, Eccica-Suarella, Figari, Fozzano, Giuncheto, Granace, Grossa, Grosseto-Prugna, Lecci, Loreto-di-Tallano, Mela, Monacia-d'Aullène, Ocana, Olmeto, Olmiccia, Peri, Piana, Pianottoli-Caldarello, Pietrosella, Pila-Canale, Porto-Vecchio, Propriano, Saint-André-d'Orcino, San-Gavino-di-Carbini, Santa-Lucia-di-Tallano, Sari-d'Orcino, Sari-Solenzara, Sarrola-Carcopino, Sartène, Serra-di-Ferro, Sollacaro, Sotta, Tavaco, Valle-di-Mezzana, Vero, Vico, Viggianello, Villanova et Zonza.
-Encépagement
-En rouge, les cépages principaux sont le grenache N, le nielluccio N et le sciaccarello N, complétés accessoirement par l'aléatico N, le barbarossa N, le carcajolo nero N, le carignan N, le cinsaut N, le minustello N, le mourvèdre N, la syrah N et le vermentino B (malvoisie de Corse).
+Département de Corse-du-Sud : Afa, Ajaccio, Alata, Albitreccia, Ambiegna, Appietto, Arbellara, Arbori, Arro, Bastelicaccia, Belvédère-Campomoro, Bilia, Bonifacio, Calcatoggio, Cannelle, Carbuccia, Cargèse, Casaglione, Casalabriva, Cauro, Coggia, Cognocoli-Monticchi, Conca, Coti-Chiavari, Cuttoli-Corticchiato, Eccica-Suarella, Figari, Fozzano, Giuncheto, Granace, Grossa, Grosseto-Prugna, Lecci, Loreto-di-Tallano, Mela, Monacia-d'Aullène, Ocana, Olmeto, Olmiccia, Peri, Piana, Pianottoli-Caldarello, Pietrosella, Pila-Canale, Porto-Vecchio, Propriano, Saint-André-d'Orcino, San-Gavino-di-Carbini, Santa-Lucia-di-Tallano, Sari-d'Orcino, Sari-Solenzara, Sarrola-Carcopino, Sartène, Serra-di-Ferro, Sollacaro, Sotta, Tavaco, Valle-di-Mezzana, Vero, Vico, Viggianello, Villanova et Zonza.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En rouge, les cépages principaux sont le grenache N, le nielluccio N et le sciaccarello N, complétés accessoirement par l'aléatico N, le barbarossa N, le carcajolo nero N, le carignan N, le cinsaut N, le minustello N, le mourvèdre N, la syrah N et le vermentino B (malvoisie de Corse).
 En blanc, le cépage principal est le vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, le codivarta B, le genovese B et l'ugni blanc B (rossola).
-Méthodes culturales et réglementations
-C'est là que depuis 1960 ont été créés de vastes vignobles aux cépages très productifs. Ces vins pour lesquels les rendements pouvaient atteindre 200 hl/ha étant devenus sans grand intérêt pour le négoce, c'est là aussi qu'on a arraché le plus et que les plans de restructuration furent les plus ambitieux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est là que depuis 1960 ont été créés de vastes vignobles aux cépages très productifs. Ces vins pour lesquels les rendements pouvaient atteindre 200 hl/ha étant devenus sans grand intérêt pour le négoce, c'est là aussi qu'on a arraché le plus et que les plans de restructuration furent les plus ambitieux. 
 De grandes coopératives traitent la vendange et vinifient selon les méthodes les plus modernes grâce à des équipements technologiquement avancés. C'est ici, qu'au début des années 1970, furent réalisés les premiers essais en conditions réelles de la machine à vendanger (marque Féménia).
-Structure des exploitations
-Types de vin
-Terroir et vins
-Vin et gastronomie
-Commercialisation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vin et gastronomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corse_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
